--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H2">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I2">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J2">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>0.08517226180833333</v>
+        <v>0.110648615868</v>
       </c>
       <c r="R2">
-        <v>0.766550356275</v>
+        <v>0.9958375428120001</v>
       </c>
       <c r="S2">
-        <v>0.01243613244775383</v>
+        <v>0.01339330580139873</v>
       </c>
       <c r="T2">
-        <v>0.01371282449239132</v>
+        <v>0.01967632336718251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H3">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I3">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J3">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>0.8797556156616666</v>
+        <v>1.28922776542</v>
       </c>
       <c r="R3">
-        <v>7.917800540955</v>
+        <v>11.60304988878</v>
       </c>
       <c r="S3">
-        <v>0.1284544654061687</v>
+        <v>0.1560527583148709</v>
       </c>
       <c r="T3">
-        <v>0.1416415872683066</v>
+        <v>0.2292596451149132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H4">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I4">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J4">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.01596172215411111</v>
+        <v>0.023879817444</v>
       </c>
       <c r="R4">
-        <v>0.143655499387</v>
+        <v>0.214918356996</v>
       </c>
       <c r="S4">
-        <v>0.002330595508306094</v>
+        <v>0.002890498855318837</v>
       </c>
       <c r="T4">
-        <v>0.002569854197229085</v>
+        <v>0.004246478876319292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H5">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I5">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J5">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>0.3852305473346667</v>
+        <v>0.50187417161</v>
       </c>
       <c r="R5">
-        <v>2.311383284008</v>
+        <v>3.01124502966</v>
       </c>
       <c r="S5">
-        <v>0.05624810246739134</v>
+        <v>0.0607486519507412</v>
       </c>
       <c r="T5">
-        <v>0.0413483511536951</v>
+        <v>0.0594978883544631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H6">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I6">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J6">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.013121074367</v>
+        <v>0.014056714952</v>
       </c>
       <c r="R6">
-        <v>0.118089669303</v>
+        <v>0.126510434568</v>
       </c>
       <c r="S6">
-        <v>0.001915828172463474</v>
+        <v>0.001701475255143042</v>
       </c>
       <c r="T6">
-        <v>0.002112506890461388</v>
+        <v>0.002499664968297634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H7">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I7">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J7">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>0.3377599792416667</v>
+        <v>0.3606243331410001</v>
       </c>
       <c r="R7">
-        <v>3.039839813175</v>
+        <v>2.163745998846</v>
       </c>
       <c r="S7">
-        <v>0.04931685208562792</v>
+        <v>0.04365126427740288</v>
       </c>
       <c r="T7">
-        <v>0.05437971491607783</v>
+        <v>0.04275252149815634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H8">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I8">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J8">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
-        <v>3.488767729948334</v>
+        <v>4.201832074665</v>
       </c>
       <c r="R8">
-        <v>31.398909569535</v>
+        <v>25.21099244799</v>
       </c>
       <c r="S8">
-        <v>0.5094003217470261</v>
+        <v>0.5086048430036378</v>
       </c>
       <c r="T8">
-        <v>0.561695305017944</v>
+        <v>0.4981330975065442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H9">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I9">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J9">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>0.06329796613322222</v>
+        <v>0.07782874800300001</v>
       </c>
       <c r="R9">
-        <v>0.5696816951989999</v>
+        <v>0.466972488018</v>
       </c>
       <c r="S9">
-        <v>0.009242233020388914</v>
+        <v>0.009420671139598418</v>
       </c>
       <c r="T9">
-        <v>0.01019103968688173</v>
+        <v>0.009226707452577481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H10">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I10">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J10">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>1.527674138369333</v>
+        <v>1.6357008810075</v>
       </c>
       <c r="R10">
-        <v>9.166044830216</v>
+        <v>6.54280352403</v>
       </c>
       <c r="S10">
-        <v>0.2230580416488414</v>
+        <v>0.1979911084028885</v>
       </c>
       <c r="T10">
-        <v>0.1639714377760339</v>
+        <v>0.1292764254531218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H11">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I11">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J11">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>0.052033064659</v>
+        <v>0.045813437574</v>
       </c>
       <c r="R11">
-        <v>0.468297581931</v>
+        <v>0.274880625444</v>
       </c>
       <c r="S11">
-        <v>0.007597427496031944</v>
+        <v>0.005545422998999538</v>
       </c>
       <c r="T11">
-        <v>0.008377378600979044</v>
+        <v>0.005431247408424523</v>
       </c>
     </row>
   </sheetData>
